--- a/biology/Botanique/Phalaenopsis/Phalaenopsis.xlsx
+++ b/biology/Botanique/Phalaenopsis/Phalaenopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaenopsis, en français Orchidée papillon[réf. nécessaire] (du grec ancien : φάλαινα / phálaina, « phalène », et ὄψις / ópsis, « aspect », c’est-à-dire « qui a l’aspect d’un papillon de nuit »), est un genre de plantes à fleurs de la famille des Orchidaceae. Phalaenopsis amboinensis est la première espèce du genre à avoir été décrite, en 1750[réf. nécessaire].
 </t>
@@ -511,12 +523,14 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phalaenopsis sont des plantes monopodiales. Elles produisent une seule tige formée par l'alternance des feuilles imbriquées l'une dans l'autre. Ces dernières sont généralement de forme oblongue assez large, à bout arrondi, plutôt épaisses.
 La plante produit une abondance de racines charnues, blanchâtres. La taille varie beaucoup d'une espèce à l'autre, allant de quelques centimètres seulement pour Phalaenopsis appendiculata jusqu'à presque un mètre de long pour Phalaenopsis gigantea.
 Toutes les espèces sont multiflores, produisant au minimum 3-4 fleurs par hampe florale, mais parfois plus d'une centaine pour Phalaenopsis schilleriana ou stuartiana. Les hampes sont de taille variable, les espèces portant peu de fleurs ont généralement des tiges très courtes, avec des fleurs serrées. Ces dernières ont une taille assez homogène dans le genre. Certes les espèces naines possèdent des fleurs plus petites en moyenne, mais il n'y a pas de différence marquée comme dans certains genres (Cattleya par exemple). Elles sont principalement blanches, roses, violettes, crème ou orangées, souvent tachetées de brun, pourpre, rose. Le labelle est très souvent marquée de jaune, orange et/ou rose. 
-Ce sont des orchidées épiphytes[1] présentes très majoritairement en Asie tropicale : depuis le Sud de la Chine et l'Est du Tibet jusqu'en Papouasie-Nouvelle-Guinée, avec la plus forte densité en Indonésie et aux Philippines. Elles vivent pour la plupart dans les forêts tropicales humides de plaines et de moyenne montagne, bien que les espèces les plus septentrionales (Phalaenopsis wilsonii par exemple) subissent parfois en hiver des températures inférieures à zéro.
+Ce sont des orchidées épiphytes présentes très majoritairement en Asie tropicale : depuis le Sud de la Chine et l'Est du Tibet jusqu'en Papouasie-Nouvelle-Guinée, avec la plus forte densité en Indonésie et aux Philippines. Elles vivent pour la plupart dans les forêts tropicales humides de plaines et de moyenne montagne, bien que les espèces les plus septentrionales (Phalaenopsis wilsonii par exemple) subissent parfois en hiver des températures inférieures à zéro.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phalaenopsis comptent parmi les orchidées les plus cultivées du monde et certainement les plus communes en Europe comme plantes d'appartement. On trouve des milliers d'hybrides dont la plupart sont vendus sans être nommés tant ils ont subi de croisements. Ce succès vient :
 de leur facilité de culture ;
@@ -590,7 +606,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les phalaenopsis sont simples à cultiver en appartement si on respecte quelques règles de base :
 Emplacement : les orchidées doivent être placées dans un endroit ventilé, lumineux mais pas au plein soleil. La température idéale est autour de 20 °C en journée (ne pas dépasser les 30 °C) et autour de 15 °C la nuit (si possible). Si possible, éviter de mettre le pot-transparent dans un cache pot car les racines en bordure du pot ont aussi besoin de lumière.
@@ -624,9 +642,11 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique, le genre Phalaenopsis est divisé en sous-genres[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique, le genre Phalaenopsis est divisé en sous-genres :
 Aphyllae
 Parishianae
 Phalaenopsis
@@ -667,7 +687,9 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phalaenopsis amabilis
@@ -687,7 +709,7 @@
 Phalaenopsis equestris
 Phalaenopsis fasciata
 Phalaenopsis fimbriata
-Phalaenopsis finleyi[3]
+Phalaenopsis finleyi
 Phalaenopsis floresensis
 Phalaenopsis fuscata
 Phalaenopsis gibbosa
@@ -709,10 +731,10 @@
 Phalaenopsis mariae
 Phalaenopsis mentawaiensis
 Phalaenopsis micholitzii
-Phalaenopsis mirabilis[4]
+Phalaenopsis mirabilis
 Phalaenopsis modesta
 Phalaenopsis mysorensis
-Phalaenopsis natmataungensis[5]
+Phalaenopsis natmataungensis
 Phalaenopsis pallens
 Phalaenopsis parishii
 Phalaenopsis philippinense
@@ -720,7 +742,7 @@
 Phalaenopsis pulchra
 Phalaenopsis reichenbachiana
 Phalaenopsis robinsonii
-Phalaenopsis rundumensis[6]
+Phalaenopsis rundumensis
 Phalaenopsis sanderiana
 Phalaenopsis schilleriana
 Phalaenopsis stobartiana
@@ -728,7 +750,7 @@
 Phalaenopsis sumatrana
 Phalaenopsis taenialis
 Phalaenopsis tetraspsis
-Phalaenopsis thailandica[7]
+Phalaenopsis thailandica
 Phalaenopsis ubonensis
 Phalaenopsis venosa
 Phalaenopsis violacea
@@ -768,7 +790,9 @@
           <t>Hybrides primaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Phalaenopsis 'A Benick' = Phalaenopsis rimestadiana × Phalaenopsis stuartiana (P. Wolter,1933)
 Phalaenopsis 'Acajou' = Phalaenopsis viridis × Phalaenopsis corningiana (Luc Vincent,1995)
@@ -932,7 +956,9 @@
           <t>Hybrides intergénériques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Doritaenopsis = Phalaenopsis × Doritis.
 Le genre Doritis est considéré comme rattaché au genre Phalaenopsis (sous-genre Phalaenopsis, section Esmeralda) par certains botanistes (analyse phylogénétique).
@@ -970,14 +996,16 @@
           <t>Hybrides majeurs de Phalaenopsis</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hybrides ayant contribué à l'obtention de nouveaux hybrides largement répandus dans le commerce et présentant des caractéristiques originales (couleur, port, forme) tel que les phalaenopsis « arlequins »[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hybrides ayant contribué à l'obtention de nouveaux hybrides largement répandus dans le commerce et présentant des caractéristiques originales (couleur, port, forme) tel que les phalaenopsis « arlequins ».
 Phalaenopsis 'Baldan's kaleïdoscope'
-Phalaenopsis 'Golden Emperor'[9].
-Phalaenopsis 'Golden Louis', premier hybride de couleur jaune[10].
-Phalaenopsis 'Golden Peoker', premier hybride de type arlequin[11],[12].
-Phalaenopsis 'Golden Sands'[13].</t>
+Phalaenopsis 'Golden Emperor'.
+Phalaenopsis 'Golden Louis', premier hybride de couleur jaune.
+Phalaenopsis 'Golden Peoker', premier hybride de type arlequin,.
+Phalaenopsis 'Golden Sands'.</t>
         </is>
       </c>
     </row>
